--- a/Study/syntax_conditions.xlsx
+++ b/Study/syntax_conditions.xlsx
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="C2">
         <v>352</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>594</v>
+        <v>706</v>
       </c>
       <c r="C4">
         <v>428</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C8">
         <v>466</v>

--- a/Study/syntax_conditions.xlsx
+++ b/Study/syntax_conditions.xlsx
@@ -25,31 +25,31 @@
     <t>ImagePathHeight</t>
   </si>
   <si>
-    <t>..\CodeSnippets\Syntax\Snippets\ArrayListConverting.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\Car.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\ClosestPair.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\Date.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\LiniearSearch.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\MapPrinter.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\MinCost.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\NaiveSearch.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Syntax\Snippets\PrintBench.png</t>
+    <t>..\CodeSnippets\Snippets\ArrayListConverting.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\Car.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\ClosestPair.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\Date.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\LiniearSearch.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\MapPrinter.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\MinCost.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\NaiveSearch.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Snippets\PrintBench.png</t>
   </si>
 </sst>
 </file>

--- a/Study/syntax_conditions.xlsx
+++ b/Study/syntax_conditions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\NoviceVsExpert\Study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA0A1C-0100-41DE-820B-BCA776C0815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,38 +31,38 @@
     <t>ImagePathHeight</t>
   </si>
   <si>
-    <t>..\CodeSnippets\Snippets\ArrayListConverting.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\Car.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\ClosestPair.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\Date.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\LiniearSearch.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\MapPrinter.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\MinCost.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\NaiveSearch.png</t>
-  </si>
-  <si>
-    <t>..\CodeSnippets\Snippets\PrintBench.png</t>
+    <t>..\CodeSnippets\Syntax\Snippets\ArrayListConverting.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\Car.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\ClosestPair.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\Date.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\LiniearSearch.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\MapPrinter.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\MinCost.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\NaiveSearch.png</t>
+  </si>
+  <si>
+    <t>..\CodeSnippets\Syntax\Snippets\PrintBench.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,15 +121,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +211,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +263,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +487,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,7 +498,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +509,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +520,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +531,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -490,7 +542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -501,7 +553,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -512,7 +564,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>

--- a/Study/syntax_conditions.xlsx
+++ b/Study/syntax_conditions.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\NoviceVsExpert\Study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA0A1C-0100-41DE-820B-BCA776C0815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,23 +115,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -179,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,24 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,16 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,7 +435,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -498,18 +446,18 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C4">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -520,7 +468,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -531,7 +479,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -542,7 +490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -553,7 +501,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -564,7 +512,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
